--- a/Our.xlsx
+++ b/Our.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljurkowski001\PycharmProjects\VWcomparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA5F72B-286C-4E62-9F09-1C7AB8822E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57796CF2-208E-4460-ABDD-93E020658136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2115" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF6C29E-FC44-4CCF-8A45-67D32758BEC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AEF6C29E-FC44-4CCF-8A45-67D32758BEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>KDW0001</t>
   </si>
@@ -72,16 +72,230 @@
   </si>
   <si>
     <t>0.11</t>
+  </si>
+  <si>
+    <t>KDW0004</t>
+  </si>
+  <si>
+    <t>KDW0005</t>
+  </si>
+  <si>
+    <t>KDW0006</t>
+  </si>
+  <si>
+    <t>KDW0007</t>
+  </si>
+  <si>
+    <t>KDW0008</t>
+  </si>
+  <si>
+    <t>KDW0009</t>
+  </si>
+  <si>
+    <t>KDW0010</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1111111111111</t>
+  </si>
+  <si>
+    <t>98765467</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>INSTR_1212_0909</t>
+  </si>
+  <si>
+    <t>INSTR_7664_0987</t>
+  </si>
+  <si>
+    <t>INSTR_9003_9876</t>
+  </si>
+  <si>
+    <t>INSTR_8893_567</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>INSTR_7672</t>
+  </si>
+  <si>
+    <t>INSTR_5671112</t>
+  </si>
+  <si>
+    <t>INSTR_7696</t>
+  </si>
+  <si>
+    <t>INSTR_80902</t>
+  </si>
+  <si>
+    <t>INSTR_0987</t>
+  </si>
+  <si>
+    <t>INSTR_45672</t>
+  </si>
+  <si>
+    <t>INSTR_9769</t>
+  </si>
+  <si>
+    <t>INSTR_3323</t>
+  </si>
+  <si>
+    <t>INSTR_1342142</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>9877</t>
+  </si>
+  <si>
+    <t>3131</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>INSTR_7672_0987</t>
+  </si>
+  <si>
+    <t>INSTR_5671112_696</t>
+  </si>
+  <si>
+    <t>INSTR_7696_696</t>
+  </si>
+  <si>
+    <t>INSTR_80902_5445</t>
+  </si>
+  <si>
+    <t>INSTR_0987_5333</t>
+  </si>
+  <si>
+    <t>INSTR_45672_0000</t>
+  </si>
+  <si>
+    <t>INSTR_9769_1111</t>
+  </si>
+  <si>
+    <t>INSTR_3323-980970</t>
+  </si>
+  <si>
+    <t>INSTR_1342142_12121</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33342</t>
+  </si>
+  <si>
+    <t>23233</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>8787</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>20231231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -425,19 +639,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C553603-BB8B-450E-9B53-1DCC84130967}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5546875" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,20 +665,62 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D2" s="1">
+        <v>111</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>112232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -469,30 +729,442 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D4" s="1">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="1">
+        <v>332</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Our.xlsx
+++ b/Our.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljurkowski001\PycharmProjects\VWcomparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80326E51-C522-4501-B9A6-D13BE12E1059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E52604D-3815-4F88-A44C-48ADCB67234B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,9 +298,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,527 +615,593 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>111</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>112232</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>332</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>78</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>332</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>2444</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>90</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
